--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2057.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2057.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.165419996150826</v>
+        <v>0.994209885597229</v>
       </c>
       <c r="B1">
-        <v>2.754723453493197</v>
+        <v>2.680562019348145</v>
       </c>
       <c r="C1">
-        <v>5.033940683916883</v>
+        <v>4.723860263824463</v>
       </c>
       <c r="D1">
-        <v>2.722763721503897</v>
+        <v>2.323959589004517</v>
       </c>
       <c r="E1">
-        <v>1.206869462262634</v>
+        <v>1.072211027145386</v>
       </c>
     </row>
   </sheetData>
